--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A9167-A18B-4938-A8B4-BA9B080A8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A177C-1A80-4551-9DA5-99F68746300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10872" yWindow="4620" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0:0.5]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +424,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N25" activeCellId="1" sqref="D6 N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -568,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>

--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A177C-1A80-4551-9DA5-99F68746300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B01C06-C61F-4FB9-AC49-478E9683C525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,22 @@
   </si>
   <si>
     <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP+2/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,14 +440,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" activeCellId="1" sqref="D6 N25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
@@ -492,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -515,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -538,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -561,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>

--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B01C06-C61F-4FB9-AC49-478E9683C525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FCD90B-71A9-4881-903F-4011C1671980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>HP+2/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,9 +460,10 @@
     <col min="5" max="5" width="15.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +485,11 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -499,8 +511,11 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -522,8 +537,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -545,8 +563,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -568,8 +589,11 @@
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -590,6 +614,9 @@
       </c>
       <c r="G6" s="1">
         <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FCD90B-71A9-4881-903F-4011C1671980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011CA98-2A67-4BD8-8A36-18B61DD8F3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,8 +107,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AtkUP</t>
+  </si>
+  <si>
+    <t>DefUP</t>
+  </si>
+  <si>
+    <t>Heal</t>
   </si>
 </sst>
 </file>
@@ -448,7 +453,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -590,7 +595,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011CA98-2A67-4BD8-8A36-18B61DD8F3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B995F86-5888-4DE2-B55D-03903BC9DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,22 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Atk Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP+2/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +98,18 @@
   </si>
   <si>
     <t>Heal</t>
+  </si>
+  <si>
+    <t>Support: Increase the Def of neighbouring friendly units by 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support: Increase the Atk of neighbouring friendly units by 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support: Heal 2Hp/Second for neighbouring friendly unit when they are in combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,22 +449,22 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -517,10 +513,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -528,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -543,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -554,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -569,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -580,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -595,10 +591,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -606,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -621,11 +617,12 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B995F86-5888-4DE2-B55D-03903BC9DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB6630-8F0D-402B-89B2-8F9108603FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>Support: Heal 2Hp/Second for neighbouring friendly unit when they are in combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tipDes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,25 +450,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,16 +486,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -501,22 +509,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -527,22 +538,25 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -553,22 +567,25 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -579,22 +596,25 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -605,18 +625,21 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB6630-8F0D-402B-89B2-8F9108603FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F6EE7-90C7-41E8-8DF7-B77509322A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,25 +94,30 @@
     <t>AtkUP</t>
   </si>
   <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Support: Increase the Def of neighbouring friendly units by 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support: Increase the Atk of neighbouring friendly units by 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support: Heal 2Hp/Second for neighbouring friendly unit when they are in combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tipDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DefUP</t>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>Support: Increase the Def of neighbouring friendly units by 20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support: Increase the Atk of neighbouring friendly units by 20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support: Heal 2Hp/Second for neighbouring friendly unit when they are in combat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tipDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkUP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -535,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -564,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -582,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -611,7 +616,7 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -640,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/SupportSkill_Data.xlsx
+++ b/GameDesign/ExcelData/SupportSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F6EE7-90C7-41E8-8DF7-B77509322A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E8D6B-430D-4722-8215-6F05FFD0CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>AtkUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp+2/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,24 +469,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -543,7 +555,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -561,7 +573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -572,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -590,7 +602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -601,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -619,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -630,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
